--- a/doc/log/牛文涛.xlsx
+++ b/doc/log/牛文涛.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>日期</t>
   </si>
@@ -51,6 +51,86 @@
   </si>
   <si>
     <t>大体了解</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>上午8</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:00-11:40</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>了解N</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LP的基础概念</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>走马观花</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>下午2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:20-21:00</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>开始逐渐理解L</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DA模型</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体看了一下，解答了上午许多疑问，正在努力理解每一步</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -58,7 +138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +157,15 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -118,7 +207,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -132,6 +221,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,19 +531,19 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.950000000000003" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="60.625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1">
+    <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -465,7 +557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" customHeight="1">
+    <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="4">
         <v>43661</v>
       </c>
@@ -479,7 +571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1">
+    <row r="3" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -491,193 +583,207 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42" customHeight="1">
+    <row r="4" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="42" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="42" customHeight="1">
+    <row r="5" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A5" s="4">
+        <v>43662</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="42" customHeight="1">
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="42" customHeight="1">
+    <row r="8" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="42" customHeight="1">
+    <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="42" customHeight="1">
+    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="42" customHeight="1">
+    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="42" customHeight="1">
+    <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="42" customHeight="1">
+    <row r="13" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="42" customHeight="1">
+    <row r="14" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="42" customHeight="1">
+    <row r="15" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="42" customHeight="1">
+    <row r="16" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="42" customHeight="1">
+    <row r="17" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="42" customHeight="1">
+    <row r="18" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="42" customHeight="1">
+    <row r="19" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="42" customHeight="1">
+    <row r="20" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="42" customHeight="1">
+    <row r="21" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="42" customHeight="1">
+    <row r="22" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="42" customHeight="1">
+    <row r="23" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="42" customHeight="1">
+    <row r="24" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="42" customHeight="1">
+    <row r="25" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="42" customHeight="1">
+    <row r="26" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" ht="42" customHeight="1">
+    <row r="27" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="42" customHeight="1">
+    <row r="28" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="42" customHeight="1">
+    <row r="29" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="42" customHeight="1">
+    <row r="30" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="42" customHeight="1">
+    <row r="31" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="42" customHeight="1">
+    <row r="32" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="42" customHeight="1">
+    <row r="33" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" ht="42" customHeight="1">
+    <row r="34" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="42" customHeight="1">
+    <row r="35" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -686,7 +792,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -694,13 +800,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="50.1" customHeight="1"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/log/牛文涛.xlsx
+++ b/doc/log/牛文涛.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>日期</t>
   </si>
@@ -131,6 +131,30 @@
   </si>
   <si>
     <t>总体看了一下，解答了上午许多疑问，正在努力理解每一步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午8:00-11:50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看数学之美与概率论课本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫清了许多盲点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午2:00-21:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看数学之美与NLP的每个大体流程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解了NLP的大体流程，了解了基础模型及其原理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -530,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.950000000000003" customHeight="1"/>
@@ -622,16 +646,30 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="39.950000000000003" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="4">
+        <v>43663</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="2"/>

--- a/doc/log/牛文涛.xlsx
+++ b/doc/log/牛文涛.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>日期</t>
   </si>
@@ -155,6 +155,42 @@
   </si>
   <si>
     <t>了解了NLP的大体流程，了解了基础模型及其原理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午8：00-11：50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装NLTK并进行简单的使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午2：00-5：40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看数学之美的马可代夫模型，并与LAD模型相比较</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马可代夫的原理能看懂，但是LAD到了共轭分布完全不懂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上7：00-9：00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习概率论的贝叶斯，多项分布等等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -554,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.950000000000003" customHeight="1"/>
@@ -678,22 +714,42 @@
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="4">
+        <v>43664</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="2"/>

--- a/doc/log/牛文涛.xlsx
+++ b/doc/log/牛文涛.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>日期</t>
   </si>
@@ -191,6 +191,38 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午8：00-11：50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看数学之美的信息的度量，现代语言处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午2;20-5:50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学之美的网络爬虫与图中间的关系，搜索引擎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上7;00-9:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何对搜索到的页面进行排名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量看了，相关性还没有看</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -591,7 +623,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.950000000000003" customHeight="1"/>
@@ -758,22 +790,42 @@
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" ht="39.950000000000003" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="4">
+        <v>43665</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A18" s="2"/>

--- a/doc/log/牛文涛.xlsx
+++ b/doc/log/牛文涛.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>日期</t>
   </si>
@@ -223,6 +223,38 @@
   </si>
   <si>
     <t>质量看了，相关性还没有看</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午8：00-11：11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考人生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一丝丝的进展</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午2：20-5：10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gitlab的使用，整理我目前的各自资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成，对git有了更深的理解</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制定下一步的学习路线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -622,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.950000000000003" customHeight="1"/>
@@ -834,22 +866,40 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="39.950000000000003" customHeight="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="4">
+        <v>43672</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A22" s="2"/>

--- a/doc/log/牛文涛.xlsx
+++ b/doc/log/牛文涛.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>日期</t>
   </si>
@@ -255,6 +255,42 @@
   </si>
   <si>
     <t>成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午8：00-11：11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看斯坦福的NLP视频</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在进行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行缓慢，正在进行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午2：20-5：10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装并学习Pytorch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装遇到了极大的挫折</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上7：00-9：00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单的使用Pytorch</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -654,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.950000000000003" customHeight="1"/>
@@ -901,29 +937,43 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="39.950000000000003" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
     <row r="23" spans="1:4" ht="39.950000000000003" customHeight="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="A23" s="4">
+        <v>43673</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A26" s="2"/>

--- a/doc/log/牛文涛.xlsx
+++ b/doc/log/牛文涛.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>日期</t>
   </si>
@@ -291,6 +291,42 @@
   </si>
   <si>
     <t>简单的使用Pytorch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午8：00-11：50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明确了一下这周的任务，调了一下电脑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午2：10-5：40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习了TF-IDF算法，并且进行测试运行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上7：00-9：00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习了PyTorch的基本内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只学了一小部分，正在进行</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -690,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:D25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.950000000000003" customHeight="1"/>
@@ -982,22 +1018,42 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" ht="39.950000000000003" customHeight="1">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="A27" s="4">
+        <v>43675</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A30" s="2"/>

--- a/doc/log/牛文涛.xlsx
+++ b/doc/log/牛文涛.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>日期</t>
   </si>
@@ -327,6 +327,42 @@
   </si>
   <si>
     <t>只学了一小部分，正在进行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午8：00-11：50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习pytorch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行缓慢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午2：10-5：40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建了一个简陋无比的神经网络，并学习了梯度下降算法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法没有吃透</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上7：00-9：20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对文章进行分析，并进行TF-IDF计算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在进行</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -726,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.950000000000003" customHeight="1"/>
@@ -1062,22 +1098,42 @@
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" ht="39.950000000000003" customHeight="1">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="A31" s="4">
+        <v>43676</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A34" s="2"/>
